--- a/pj_creator_2/res/xlsx/origin_country_description.xlsx
+++ b/pj_creator_2/res/xlsx/origin_country_description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="4740"/>
+    <workbookView windowWidth="15360" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,8 @@
 subdued and devastated by the soldiers.</t>
   </si>
   <si>
-    <t>a province occupied by the imperial army,
-subdued and devastated by the soldiers.</t>
+    <t>una provincia ocupada por el ejército imperial,
+sometida y devastada por los soldados.</t>
   </si>
   <si>
     <t>lost_tribe_of_the_forest</t>
@@ -1083,13 +1083,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1414,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="97" customHeight="1" outlineLevelCol="3"/>
@@ -1804,10 +1801,10 @@
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1815,10 +1812,10 @@
       <c r="A36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1826,10 +1823,10 @@
       <c r="A37" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1837,10 +1834,10 @@
       <c r="A38" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>113</v>
       </c>
     </row>
